--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1129251.453705246</v>
+        <v>1107971.570884184</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9836844.854419617</v>
+        <v>9836844.854419615</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>116.9725659584295</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
         <v>263.7138800015062</v>
@@ -673,13 +673,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>79.51149230610436</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>143.2978004050254</v>
       </c>
       <c r="X3" t="n">
-        <v>5.783383305088679</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>89.28741136156229</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>20.13113322985771</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>51.37326572970893</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>12.28184589708157</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539857</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>135.7105779905284</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>68.78220372725444</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813364</v>
+        <v>33.74703566813378</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>65.67269839789995</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>31.24156987370606</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>184.7799871248161</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.8165095851524171</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>237.9193059650778</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.58385529013945</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>171.1971464172155</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>168.1158122680975</v>
+        <v>232.8259547974233</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>102.9997756133923</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292592</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>119.5444359887431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.765389261413</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.9899243971809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>370.1160305212866</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>282.3935320802027</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>54.26003672910085</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>35.01474696300828</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>38.71544536799014</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2298,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968144</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>377.4526047784022</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2371,13 +2371,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>66.36004732440871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>77.31354443380475</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486463</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>17.35112070699463</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>55.37932567099725</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>277.7360994390934</v>
+        <v>264.4736234408109</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>99.59933623926791</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>321.401833697719</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>70.8276411951062</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>381.5245088879232</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>147.0541277560806</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>79.49505480544732</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>186.8362719272028</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>196.748917150892</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>276.4896811987708</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>95.97539145407676</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>183.0172251110635</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>251.6619297099712</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>133.2099892451619</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>47.62401295340994</v>
+        <v>188.9347161148182</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>42.34070507092609</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>195.7321437071087</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>77.27446886463751</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>11.59100715283789</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>227.5051487593409</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.86018225786083</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>113.4828484257686</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>116.6532574629628</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="D2" t="n">
-        <v>936.7014129773081</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="E2" t="n">
-        <v>670.3237564101302</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429522</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052545</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202.8592554384327</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="C3" t="n">
-        <v>202.8592554384327</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="D3" t="n">
-        <v>202.8592554384327</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4412,22 +4412,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>691.0742594480922</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="U3" t="n">
-        <v>462.9384134849057</v>
+        <v>611.574711881066</v>
       </c>
       <c r="V3" t="n">
-        <v>462.9384134849057</v>
+        <v>611.574711881066</v>
       </c>
       <c r="W3" t="n">
-        <v>208.7010567567041</v>
+        <v>466.8294589466969</v>
       </c>
       <c r="X3" t="n">
-        <v>202.8592554384327</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="Y3" t="n">
-        <v>202.8592554384327</v>
+        <v>258.9779587411641</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.2759572512191</v>
+        <v>523.6219478669378</v>
       </c>
       <c r="C4" t="n">
-        <v>719.2759572512191</v>
+        <v>354.6857649390309</v>
       </c>
       <c r="D4" t="n">
-        <v>719.2759572512191</v>
+        <v>204.5691255266952</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0866528456006</v>
+        <v>56.6560319443021</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>56.6560319443021</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>56.6560319443021</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>56.6560319443021</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075544</v>
@@ -4515,25 +4515,25 @@
         <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="X4" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="Y4" t="n">
-        <v>719.2759572512191</v>
+        <v>705.2704126971776</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1319.806061306789</v>
+        <v>53.21684208710771</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.806061306789</v>
+        <v>53.21684208710771</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.806061306789</v>
+        <v>53.21684208710771</v>
       </c>
       <c r="E5" t="n">
-        <v>1267.913873701023</v>
+        <v>53.21684208710771</v>
       </c>
       <c r="F5" t="n">
-        <v>856.927968911415</v>
+        <v>46.27134133790424</v>
       </c>
       <c r="G5" t="n">
-        <v>440.4816599244639</v>
+        <v>33.8654363913572</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705479</v>
+        <v>33.8654363913572</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135738</v>
+        <v>33.8654363913572</v>
       </c>
       <c r="J5" t="n">
-        <v>108.460446878028</v>
+        <v>108.4604468780272</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818696</v>
+        <v>270.9975490818679</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373991</v>
+        <v>509.5409587373963</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176493</v>
+        <v>806.6359018176449</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058971</v>
+        <v>1113.151960058965</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836699</v>
+        <v>1389.251120836692</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.39436592169</v>
+        <v>1590.394365921682</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.27181956786</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.27181956786</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.27181956786</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567869</v>
+        <v>1556.190427658235</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567869</v>
+        <v>1556.190427658235</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567869</v>
+        <v>1556.190427658235</v>
       </c>
       <c r="W5" t="n">
-        <v>1693.271819567869</v>
+        <v>1203.421772388121</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.806061306789</v>
+        <v>829.9560141270413</v>
       </c>
       <c r="Y5" t="n">
-        <v>1319.806061306789</v>
+        <v>439.8166821512295</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645.7796061365804</v>
+        <v>620.0552186173609</v>
       </c>
       <c r="C6" t="n">
-        <v>471.3265768554533</v>
+        <v>445.6021893362339</v>
       </c>
       <c r="D6" t="n">
-        <v>471.3265768554533</v>
+        <v>296.6677796749826</v>
       </c>
       <c r="E6" t="n">
-        <v>312.0891218499978</v>
+        <v>137.4303246695271</v>
       </c>
       <c r="F6" t="n">
-        <v>165.5545638768828</v>
+        <v>67.95335120765395</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>67.95335120765395</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765398</v>
+        <v>67.95335120765395</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135738</v>
+        <v>33.8654363913572</v>
       </c>
       <c r="J6" t="n">
-        <v>184.3059916402493</v>
+        <v>59.47586665324403</v>
       </c>
       <c r="K6" t="n">
-        <v>453.7840752777441</v>
+        <v>181.4029958650488</v>
       </c>
       <c r="L6" t="n">
-        <v>664.0526884004794</v>
+        <v>417.8929236718979</v>
       </c>
       <c r="M6" t="n">
-        <v>928.7831103572209</v>
+        <v>682.6233456286384</v>
       </c>
       <c r="N6" t="n">
-        <v>1214.928803768949</v>
+        <v>968.7690390403657</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.476414943147</v>
+        <v>1208.316650214563</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557616</v>
+        <v>1627.401425557608</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232582</v>
+        <v>1693.078019232574</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.27181956786</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843114</v>
+        <v>1693.27181956786</v>
       </c>
       <c r="T6" t="n">
-        <v>1550.180157843114</v>
+        <v>1693.27181956786</v>
       </c>
       <c r="U6" t="n">
-        <v>1550.180157843114</v>
+        <v>1693.27181956786</v>
       </c>
       <c r="V6" t="n">
-        <v>1483.844098855337</v>
+        <v>1458.119711336117</v>
       </c>
       <c r="W6" t="n">
-        <v>1229.606742127135</v>
+        <v>1203.882354607916</v>
       </c>
       <c r="X6" t="n">
-        <v>1021.755241921602</v>
+        <v>996.0308544023828</v>
       </c>
       <c r="Y6" t="n">
-        <v>813.9949431566483</v>
+        <v>788.270555637429</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.0430085595999</v>
+        <v>478.7851168839965</v>
       </c>
       <c r="C7" t="n">
-        <v>318.0430085595999</v>
+        <v>478.7851168839965</v>
       </c>
       <c r="D7" t="n">
-        <v>318.0430085595999</v>
+        <v>328.6684774716607</v>
       </c>
       <c r="E7" t="n">
-        <v>318.0430085595999</v>
+        <v>180.7553838892676</v>
       </c>
       <c r="F7" t="n">
-        <v>318.0430085595999</v>
+        <v>33.8654363913572</v>
       </c>
       <c r="G7" t="n">
-        <v>149.7239061590866</v>
+        <v>33.8654363913572</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590866</v>
+        <v>33.8654363913572</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135738</v>
+        <v>33.8654363913572</v>
       </c>
       <c r="J7" t="n">
-        <v>36.2851213365221</v>
+        <v>36.28512133652168</v>
       </c>
       <c r="K7" t="n">
-        <v>170.09824371286</v>
+        <v>170.0982437128592</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119591</v>
+        <v>396.8594047119578</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191544</v>
+        <v>646.3363778191526</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361662</v>
+        <v>895.3159625361639</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021382</v>
+        <v>1109.272612021379</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580467</v>
+        <v>1268.828805580464</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397016</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="R7" t="n">
-        <v>1264.305022110444</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="S7" t="n">
-        <v>1264.305022110444</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="T7" t="n">
-        <v>1264.305022110444</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="U7" t="n">
-        <v>975.1685407392565</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="V7" t="n">
-        <v>720.4840525333697</v>
+        <v>1295.862163397012</v>
       </c>
       <c r="W7" t="n">
-        <v>720.4840525333697</v>
+        <v>1109.215711755784</v>
       </c>
       <c r="X7" t="n">
-        <v>720.4840525333697</v>
+        <v>881.2261608577663</v>
       </c>
       <c r="Y7" t="n">
-        <v>499.6914733898395</v>
+        <v>660.4335817142362</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.953909778728</v>
+        <v>474.7217947496374</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>474.7217947496374</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>474.7217947496374</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>474.7217947496374</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>63.73588996002979</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>52.07154372472273</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>52.07154372472273</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,10 +4810,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2322.016797122299</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>1990.953909778728</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W8" t="n">
-        <v>1990.953909778728</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X8" t="n">
-        <v>1990.953909778728</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y8" t="n">
-        <v>1990.953909778728</v>
+        <v>861.3216348137591</v>
       </c>
     </row>
     <row r="9">
@@ -4865,49 +4865,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081668</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.1019332386097</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>157.1019332386097</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>157.1019332386097</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386097</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1589.391720791528</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1392.762972951389</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1392.762972951389</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1103.644635455227</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>848.9601472493403</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W10" t="n">
-        <v>559.5429772123796</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>559.5429772123796</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>338.7503980688494</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308158</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367746</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760996</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.384423162752</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="F11" t="n">
-        <v>651.398518373144</v>
+        <v>716.7622987057964</v>
       </c>
       <c r="G11" t="n">
-        <v>236.3260682181405</v>
+        <v>301.6898485507929</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.140063348092</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.00073137228</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5108,46 +5108,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5284,19 +5284,19 @@
         <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W14" t="n">
-        <v>3215.315153136266</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.8377936138381</v>
+        <v>339.6240985328151</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8377936138381</v>
+        <v>339.6240985328151</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8377936138381</v>
+        <v>189.5074591204794</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8377936138381</v>
+        <v>189.5074591204794</v>
       </c>
       <c r="F16" t="n">
-        <v>163.8377936138381</v>
+        <v>189.5074591204794</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>189.5074591204794</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368017</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621301</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251695</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271522</v>
+        <v>742.0651425065849</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.8377936138381</v>
+        <v>521.2725633630548</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1519.109083729354</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C17" t="n">
-        <v>1150.146566788942</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>791.8808681821918</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810557</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>3009.337405520488</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="W17" t="n">
-        <v>2656.568750250373</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X17" t="n">
-        <v>2283.102991989294</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y17" t="n">
-        <v>1892.963660013482</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5582,46 +5582,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>752.7622949738575</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C19" t="n">
-        <v>583.8261120459506</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5673,16 +5673,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1672.610059882605</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.192889845645</v>
+        <v>844.8558048863637</v>
       </c>
       <c r="X19" t="n">
-        <v>1155.203338947627</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="Y19" t="n">
-        <v>934.4107598040972</v>
+        <v>396.0736748448162</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1675.730933054507</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1675.730933054507</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1317.465234447756</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>931.6769818495118</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>520.6910770599043</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>105.6186269049007</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V20" t="n">
-        <v>3215.315153136266</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W20" t="n">
-        <v>3215.315153136266</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X20" t="n">
-        <v>3121.906610713899</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>2062.330773118628</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888694</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645847</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>1540.336209604299</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1575.942324366272</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C23" t="n">
-        <v>1575.942324366272</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>1546.221676928586</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>1160.433424330341</v>
       </c>
       <c r="F23" t="n">
         <v>779.1681669784198</v>
@@ -5983,25 +5983,25 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
@@ -6010,7 +6010,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
         <v>3325.60582160917</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V23" t="n">
-        <v>2688.776577961587</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W23" t="n">
-        <v>2336.007922691473</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X23" t="n">
-        <v>1962.542164430393</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y23" t="n">
-        <v>1962.542164430393</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1861.970701620179</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C25" t="n">
-        <v>1693.034518692272</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D25" t="n">
-        <v>1542.917879279936</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>3036.502954734814</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>2781.818466528927</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>2492.401296491966</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>2264.411745593949</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>2043.619166450419</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2065.110222835252</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C26" t="n">
-        <v>1696.14770589484</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.88200728809</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E26" t="n">
-        <v>952.0937546898456</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F26" t="n">
-        <v>541.1078499002381</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>126.0353997452345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810557</v>
@@ -6235,43 +6235,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V26" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W26" t="n">
-        <v>3215.315153136266</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X26" t="n">
-        <v>2841.849394875186</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="Y26" t="n">
-        <v>2451.710062899374</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6323,10 +6323,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2320.988771034578</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C28" t="n">
-        <v>2320.988771034578</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D28" t="n">
-        <v>2170.872131622242</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.959038039849</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.322864763051</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U28" t="n">
-        <v>2541.781350178108</v>
+        <v>1438.382858475381</v>
       </c>
       <c r="V28" t="n">
-        <v>2541.781350178108</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="W28" t="n">
-        <v>2541.781350178108</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X28" t="n">
-        <v>2541.781350178108</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y28" t="n">
-        <v>2320.988771034578</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796256</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C29" t="n">
-        <v>821.1650657389509</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D29" t="n">
-        <v>821.1650657389509</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="E29" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218342</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V31" t="n">
-        <v>1927.294548088492</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2303.170539913434</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>791.4709073899305</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
@@ -6733,19 +6733,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>3066.775630150325</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X32" t="n">
-        <v>2693.309871889246</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2303.170539913434</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="33">
@@ -6797,10 +6797,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.6774975139006</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>294.723245171594</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>146.8101515892009</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>146.8101515892009</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218342</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U34" t="n">
-        <v>1325.11854148767</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>1325.11854148767</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>1325.11854148767</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X34" t="n">
-        <v>1325.11854148767</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y34" t="n">
-        <v>1104.32596234414</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1179.52858457759</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C35" t="n">
-        <v>810.5660676371781</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D35" t="n">
-        <v>452.3003690304276</v>
+        <v>1133.303650087722</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51211643218342</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
@@ -6946,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2682.502170148718</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W35" t="n">
-        <v>2329.733514878603</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X35" t="n">
-        <v>1956.267756617523</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y35" t="n">
-        <v>1566.128424641711</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>628.7269654071711</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C37" t="n">
-        <v>459.7907824792642</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D37" t="n">
-        <v>309.6741430669284</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218342</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1742.428664137924</v>
       </c>
       <c r="U37" t="n">
-        <v>1513.842048484845</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="V37" t="n">
-        <v>1259.157560278958</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.157560278958</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X37" t="n">
-        <v>1031.168009380941</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y37" t="n">
-        <v>810.3754302374108</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7177,16 +7177,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339056</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077976</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y38" t="n">
-        <v>2599.371408077976</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>482.8906159540807</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C40" t="n">
-        <v>313.9544330261738</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1657.422869068715</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="V40" t="n">
-        <v>1402.738380862829</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="W40" t="n">
-        <v>1113.321210825868</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X40" t="n">
-        <v>885.3316599278505</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y40" t="n">
-        <v>664.5390807843204</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.35562273557</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C41" t="n">
-        <v>1320.35562273557</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912098</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081056</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3282.837432648639</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3076.859685032861</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2823.329208306698</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2823.329208306698</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W41" t="n">
-        <v>2470.560553036583</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X41" t="n">
-        <v>2097.094794775503</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y41" t="n">
-        <v>1706.955462799692</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,7 +7505,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P42" t="n">
         <v>2407.41198488674</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.8377936138381</v>
+        <v>549.3683227675135</v>
       </c>
       <c r="C43" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E43" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F43" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7575,19 +7575,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q43" t="n">
         <v>1927.294548088492</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1849.239529033303</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T43" t="n">
-        <v>1627.472913602829</v>
+        <v>1723.900575882148</v>
       </c>
       <c r="U43" t="n">
-        <v>1338.370046728473</v>
+        <v>1723.900575882148</v>
       </c>
       <c r="V43" t="n">
-        <v>1083.685558522586</v>
+        <v>1469.216087676261</v>
       </c>
       <c r="W43" t="n">
-        <v>794.2683884856252</v>
+        <v>1179.798917639301</v>
       </c>
       <c r="X43" t="n">
-        <v>566.2788375876079</v>
+        <v>951.8093667412834</v>
       </c>
       <c r="Y43" t="n">
-        <v>345.4862584440777</v>
+        <v>731.0167875977533</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.124011696101</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>994.1614947556889</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>635.8957961489384</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839476</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3243.928869833552</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3037.951122217774</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267228</v>
+        <v>3037.951122217774</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.097597267228</v>
+        <v>2706.888234874203</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.328941997114</v>
+        <v>2354.119579604089</v>
       </c>
       <c r="X44" t="n">
-        <v>2139.863183736034</v>
+        <v>1980.653821343009</v>
       </c>
       <c r="Y44" t="n">
-        <v>1749.723851760222</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672846</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.778206672846</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U46" t="n">
-        <v>1645.778206672846</v>
+        <v>1399.212908660835</v>
       </c>
       <c r="V46" t="n">
-        <v>1391.093718466959</v>
+        <v>1399.212908660835</v>
       </c>
       <c r="W46" t="n">
-        <v>1391.093718466959</v>
+        <v>1109.795738623875</v>
       </c>
       <c r="X46" t="n">
-        <v>1391.093718466959</v>
+        <v>881.8061877258572</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.262145272047</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.3216690912726</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157934</v>
+        <v>25.82445471157982</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>149.0413681067569</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>26.48617644860073</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>248.6462269985626</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>255.8421700460946</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>138.939397511106</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>-8.503883084314845e-16</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.491952119223</v>
+        <v>61.78180958989711</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>43.43418703317685</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,13 +23472,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>266.6935026673105</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>22.98962565290782</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.59472895491385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.61781114219394</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>45.3587263899322</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>94.35543628911151</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>251.5082513735827</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>255.8923190193303</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>29.42344096330919</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>261.3922111457262</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>69.12041821276442</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>16.14213605696659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>277.2566436803259</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>314.3517750074718</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>8.475738766519441</v>
+        <v>21.73821476480202</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>265.6735555317396</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>60.5285363745428</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>109.0043389868311</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>25.35153685378822</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>202.1868409613324</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86.5307534535809</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>99.37556627841005</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>185.1814529213698</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>51.26257727136408</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>50.45857119249241</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,19 +25362,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>36.53172416510566</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>131.0719119535094</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>248.7203808270998</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
@@ -25450,7 +25450,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>238.5878252522029</v>
+        <v>97.27712209079465</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.84705671724976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>173.9989569713603</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
-        <v>112.4945564668044</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>207.9579421233313</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>154.4252213129209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>28.32757953031505</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>172.7289897798443</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>101.931395889132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>979173.720171966</v>
+        <v>979173.7201719661</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808662.5101618118</v>
+        <v>808662.5101618116</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808662.5101618116</v>
+        <v>808662.5101618117</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808662.5101618116</v>
+        <v>808662.5101618115</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>808662.5101618117</v>
+        <v>808662.5101618116</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>808662.5101618116</v>
+        <v>808662.5101618115</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>472099.0176719633</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="F2" t="n">
+        <v>392146.6638165591</v>
+      </c>
+      <c r="G2" t="n">
         <v>392146.6638165589</v>
       </c>
-      <c r="F2" t="n">
-        <v>392146.663816559</v>
-      </c>
-      <c r="G2" t="n">
-        <v>392146.6638165588</v>
-      </c>
       <c r="H2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="I2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.6638165586</v>
       </c>
       <c r="J2" t="n">
         <v>392146.6638165588</v>
       </c>
       <c r="K2" t="n">
-        <v>392146.6638165587</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="L2" t="n">
         <v>392146.6638165588</v>
       </c>
       <c r="M2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="N2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="O2" t="n">
         <v>392146.6638165589</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>392146.6638165587</v>
-      </c>
-      <c r="O2" t="n">
-        <v>392146.6638165588</v>
-      </c>
-      <c r="P2" t="n">
-        <v>392146.6638165588</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739507</v>
+        <v>176672.624173948</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381907</v>
+        <v>223886.3093819095</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911411</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640818</v>
+        <v>41076.98154640761</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946805</v>
+        <v>54988.29121946866</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>198633.6358683829</v>
+        <v>198633.6358683836</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>7940.571207054552</v>
+        <v>7940.571207054563</v>
       </c>
       <c r="F4" t="n">
         <v>7940.571207054541</v>
       </c>
       <c r="G4" t="n">
-        <v>7940.571207054563</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="H4" t="n">
+        <v>7940.571207054552</v>
+      </c>
+      <c r="I4" t="n">
         <v>7940.571207054564</v>
       </c>
-      <c r="I4" t="n">
-        <v>7940.571207054563</v>
-      </c>
       <c r="J4" t="n">
-        <v>7940.571207054564</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="K4" t="n">
         <v>7940.571207054552</v>
       </c>
       <c r="L4" t="n">
-        <v>7940.571207054564</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="M4" t="n">
         <v>7940.571207054552</v>
@@ -26456,10 +26456,10 @@
         <v>7940.571207054552</v>
       </c>
       <c r="O4" t="n">
-        <v>7940.571207054563</v>
+        <v>7940.571207054597</v>
       </c>
       <c r="P4" t="n">
-        <v>7940.571207054552</v>
+        <v>7940.57120705457</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923119</v>
+        <v>75746.871679231</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26490,10 +26490,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26508,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-517790.6335217273</v>
+        <v>-517790.6335217275</v>
       </c>
       <c r="C6" t="n">
-        <v>21045.88595039786</v>
+        <v>21045.88595040014</v>
       </c>
       <c r="D6" t="n">
-        <v>20956.93558834745</v>
+        <v>20956.93558834505</v>
       </c>
       <c r="E6" t="n">
-        <v>127826.7722309205</v>
+        <v>124350.5829328596</v>
       </c>
       <c r="F6" t="n">
-        <v>309899.7520481109</v>
+        <v>306423.5627500498</v>
       </c>
       <c r="G6" t="n">
-        <v>309899.7520481113</v>
+        <v>306423.5627500502</v>
       </c>
       <c r="H6" t="n">
-        <v>309899.7520481109</v>
+        <v>306423.56275005</v>
       </c>
       <c r="I6" t="n">
-        <v>309899.7520481109</v>
+        <v>306423.5627500499</v>
       </c>
       <c r="J6" t="n">
-        <v>240900.5976289969</v>
+        <v>237424.4083309358</v>
       </c>
       <c r="K6" t="n">
-        <v>268822.7705017027</v>
+        <v>265346.5812036422</v>
       </c>
       <c r="L6" t="n">
-        <v>254911.4608286429</v>
+        <v>251435.2715305813</v>
       </c>
       <c r="M6" t="n">
-        <v>262347.4862546961</v>
+        <v>258871.2969566351</v>
       </c>
       <c r="N6" t="n">
-        <v>309899.7520481109</v>
+        <v>306423.5627500499</v>
       </c>
       <c r="O6" t="n">
-        <v>309899.7520481109</v>
+        <v>306423.56275005</v>
       </c>
       <c r="P6" t="n">
-        <v>309899.7520481111</v>
+        <v>306423.5627500499</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908066</v>
+        <v>751.4467899908046</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,28 +26792,28 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919672</v>
+        <v>423.317954891965</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213283</v>
+        <v>137.3917762213262</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267328</v>
+        <v>182.6181021267348</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.604074890461</v>
+        <v>159.6040748904587</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080716</v>
+        <v>217.266877208074</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.604074890461</v>
+        <v>159.6040748904588</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080716</v>
+        <v>217.266877208074</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.604074890461</v>
+        <v>159.6040748904587</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080716</v>
+        <v>217.266877208074</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>237.7104756622534</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
         <v>118.2164900707556</v>
@@ -27393,13 +27393,13 @@
         <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>333.3226823396056</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>108.3971827558942</v>
       </c>
       <c r="X3" t="n">
-        <v>199.9896018983888</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57.14655128500688</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>102.0194402949508</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>330.5571043425529</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323769</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539886</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>140.1815018398515</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>74.16131851557378</v>
       </c>
       <c r="U5" t="n">
         <v>251.1039815783922</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27700,19 +27700,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>76.28700866612944</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253653</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
         <v>193.6498268080145</v>
@@ -27754,7 +27754,7 @@
         <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>167.1278887515253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>85.12303751502854</v>
+        <v>116.3646073887348</v>
       </c>
       <c r="S7" t="n">
         <v>200.4014587515235</v>
@@ -27830,16 +27830,16 @@
         <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>101.7430112117749</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>64.89340308731802</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>13.12594416338425</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>54.97371712943417</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>80.94049690661248</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053491</v>
+        <v>3.020891618053484</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339033</v>
+        <v>30.93770628339025</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050073</v>
+        <v>116.462924105007</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677678</v>
+        <v>256.3943999677671</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599721</v>
+        <v>384.2687421599711</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159768</v>
+        <v>476.7193540159755</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285355</v>
+        <v>530.4421353285342</v>
       </c>
       <c r="N5" t="n">
-        <v>539.02524363833</v>
+        <v>539.0252436383287</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113106</v>
+        <v>508.9862526113093</v>
       </c>
       <c r="P5" t="n">
-        <v>434.407990790615</v>
+        <v>434.4079907906138</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190742</v>
+        <v>326.2223097190733</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025528</v>
+        <v>189.7610831025523</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639401</v>
+        <v>68.83856774639384</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802917</v>
+        <v>13.22395305802913</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442793</v>
+        <v>0.2416713294442786</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546263</v>
+        <v>1.616319510546259</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395997</v>
+        <v>15.61024369395992</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328144</v>
+        <v>55.64959718328129</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433205</v>
+        <v>152.7067481433201</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499201</v>
+        <v>261.0001553499194</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876876</v>
+        <v>350.9469182876867</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449895</v>
+        <v>409.5385005449885</v>
       </c>
       <c r="N6" t="n">
-        <v>420.377766034574</v>
+        <v>420.3777660345729</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587857</v>
+        <v>384.5635284587847</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077334</v>
+        <v>308.6461353077326</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970985</v>
+        <v>206.3217676970979</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>100.3535920670739</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633079</v>
+        <v>30.02242599633071</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807085</v>
+        <v>6.514901886807068</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1063368099043592</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950635</v>
+        <v>1.355067981950631</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952474</v>
+        <v>12.04778623952471</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720637</v>
+        <v>40.75058985720626</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390987</v>
+        <v>95.80330632390962</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029919</v>
+        <v>157.4342619029915</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165517</v>
+        <v>201.4616525165511</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706799</v>
+        <v>212.4130655706794</v>
       </c>
       <c r="N7" t="n">
-        <v>207.362357637955</v>
+        <v>207.3623576379545</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488043</v>
+        <v>191.5326998488038</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170112</v>
+        <v>163.8893130170108</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886118</v>
+        <v>113.4684652886115</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843489</v>
+        <v>60.92878398843473</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544878</v>
+        <v>23.61513928544872</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879983</v>
+        <v>5.789835922879968</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548925</v>
+        <v>0.07391279901548906</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33043,7 +33043,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987486</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33280,7 +33280,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33517,7 +33517,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34240,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34289,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34307,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138794</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.938547087769</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108147</v>
+        <v>75.34849544108079</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149916</v>
+        <v>164.1788911149906</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459895</v>
+        <v>240.9529390459883</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012628</v>
+        <v>300.0959021012615</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417391</v>
+        <v>309.6121800417378</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896239</v>
+        <v>278.8880411896225</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353454</v>
+        <v>203.1749950353443</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446247</v>
+        <v>103.9166198446239</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.9601568170626</v>
+        <v>25.86912147665336</v>
       </c>
       <c r="K6" t="n">
-        <v>272.200084482318</v>
+        <v>123.1587163755604</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078134</v>
+        <v>238.8787149564132</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229712</v>
+        <v>267.4044666229702</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512407</v>
+        <v>289.0360539512396</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143413</v>
+        <v>241.9672840143403</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934032</v>
+        <v>423.317954891965</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107695</v>
+        <v>66.33999361107641</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144310415</v>
+        <v>0.1957579144307857</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.44412620723709</v>
+        <v>2.444126207236849</v>
       </c>
       <c r="K7" t="n">
-        <v>135.164770077109</v>
+        <v>135.1647700771086</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768678</v>
+        <v>229.0516777768673</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325205</v>
+        <v>251.9969425325199</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171836</v>
+        <v>251.4945300171831</v>
       </c>
       <c r="O7" t="n">
-        <v>216.117827762844</v>
+        <v>216.1178277628435</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819047</v>
+        <v>161.1678722819043</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.3064220369174</v>
+        <v>27.30642203691711</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>553.5225306839449</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35269,7 +35269,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346383</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127271</v>
@@ -36913,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687135</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340052</v>
